--- a/Sprint 4/SysUt14 Gr 2 Sprint 4 Prosjekt burn down chart (mini).xlsx
+++ b/Sprint 4/SysUt14 Gr 2 Sprint 4 Prosjekt burn down chart (mini).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Gjenstående timer (ideelt)</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Vi var svært dårlige å holde rede på tidsforbruk..</t>
+  </si>
+  <si>
+    <t>SysUt14 Gr 2 Sprint 4 prosjekt burn down chart mini</t>
   </si>
 </sst>
 </file>
@@ -98,18 +101,12 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -119,23 +116,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -160,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,29 +157,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -245,13 +229,13 @@
                   <c:v>375.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250.40000000000003</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125.20000000000003</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8421709430404007E-14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -286,24 +270,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74703232"/>
-        <c:axId val="74705152"/>
+        <c:axId val="47178112"/>
+        <c:axId val="47179648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74703232"/>
+        <c:axId val="47178112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74705152"/>
+        <c:crossAx val="47179648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74705152"/>
+        <c:axId val="47179648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -311,7 +295,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74703232"/>
+        <c:crossAx val="47178112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -324,7 +308,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -336,14 +320,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>702468</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:colOff>678656</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>83345</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -650,41 +634,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="41.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
     <col min="10" max="18" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2"/>
@@ -699,28 +683,26 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="15.75">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>626</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>110</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>61</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>126</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="6"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -730,28 +712,26 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="15.75">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>626</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>90</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>43</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>111.5</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -761,29 +741,29 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="15.75">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8">
         <f>(B3-$B$3/5)</f>
         <v>500.8</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <f>(C4-$B$3/5)</f>
         <v>375.6</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <f>(D4-$B$3/5)</f>
-        <v>250.40000000000003</v>
-      </c>
-      <c r="F4" s="10">
+        <v>250</v>
+      </c>
+      <c r="F4" s="8">
         <f>(E4-$B$3/5)</f>
-        <v>125.20000000000003</v>
-      </c>
-      <c r="G4" s="10">
+        <v>125</v>
+      </c>
+      <c r="G4" s="8">
         <f>(F4-$B$3/5)</f>
-        <v>2.8421709430404007E-14</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -797,21 +777,21 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="15.75">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
         <v>536</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>475</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>363.5</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -823,14 +803,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+    <row r="6" spans="1:18">
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -843,14 +816,11 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+    <row r="7" spans="1:18" ht="15.75">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -862,6 +832,16 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sprint 4/SysUt14 Gr 2 Sprint 4 Prosjekt burn down chart (mini).xlsx
+++ b/Sprint 4/SysUt14 Gr 2 Sprint 4 Prosjekt burn down chart (mini).xlsx
@@ -265,29 +265,32 @@
                 <c:pt idx="2">
                   <c:v>363.5</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>235.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47178112"/>
-        <c:axId val="47179648"/>
+        <c:axId val="100394112"/>
+        <c:axId val="100396032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47178112"/>
+        <c:axId val="100394112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47179648"/>
+        <c:crossAx val="100396032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47179648"/>
+        <c:axId val="100396032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -295,7 +298,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47178112"/>
+        <c:crossAx val="100394112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -308,7 +311,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -637,7 +640,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -698,7 +701,9 @@
       <c r="E2" s="6">
         <v>126</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6">
+        <v>190</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="2"/>
       <c r="I2" s="4"/>
@@ -727,7 +732,9 @@
       <c r="E3" s="6">
         <v>111.5</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6">
+        <v>128</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="3"/>
       <c r="I3" s="5"/>
@@ -763,7 +770,7 @@
       </c>
       <c r="G4" s="8">
         <f>(F4-$B$3/5)</f>
-        <v>2</v>
+        <v>-0.20000000000000284</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -790,7 +797,9 @@
       <c r="E5" s="7">
         <v>363.5</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>235.5</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
